--- a/webscrapping/src/test/resources/ScrapeData/Hypertension_Input.xlsx
+++ b/webscrapping/src/test/resources/ScrapeData/Hypertension_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reka\eclipse-workspace\webscrapping\src\test\resources\ScrapeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA1B920-F734-4EF1-8D27-7B6516AB2D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BAFF5E-31C7-4B1E-A55D-9DF501A2D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78AECA5B-D97C-4E2C-B1C6-7E9417AB3CD8}"/>
+    <workbookView xWindow="1392" yWindow="948" windowWidth="11076" windowHeight="11292" xr2:uid="{78AECA5B-D97C-4E2C-B1C6-7E9417AB3CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="hypertension_list" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>sheetcounter</t>
   </si>
@@ -53,15 +53,9 @@
     <t>Jain Hypertension</t>
   </si>
   <si>
-    <t xml:space="preserve">Non Hypertension </t>
-  </si>
-  <si>
     <t>Vegetarian Hypertension</t>
   </si>
   <si>
-    <t>Hypertension Recipes</t>
-  </si>
-  <si>
     <t>Hypertension</t>
   </si>
   <si>
@@ -281,7 +275,7 @@
     <t>Seafood</t>
   </si>
   <si>
-    <t>Less salt recipes</t>
+    <t xml:space="preserve">Non Veg Hypertension </t>
   </si>
 </sst>
 </file>
@@ -719,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AE28D7-D05C-4071-9FB5-3969234DE00E}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -759,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -767,23 +761,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -807,117 +785,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -1099,72 +1077,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.6">
       <c r="A13" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1188,182 +1166,182 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
